--- a/test/output/新建 Microsoft Excel 工作表.xlsx
+++ b/test/output/新建 Microsoft Excel 工作表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6690" yWindow="870" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6690" yWindow="870" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,8 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,35 +401,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>b</t>
+    <row r="1" ht="42.75" customHeight="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>a
+a
+a</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ddd</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -443,72 +453,261 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>{aaaa|</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FloatingBBBB</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -522,7 +721,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -544,42 +743,42 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
